--- a/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
+++ b/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
@@ -1439,13 +1439,70 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,27 +1511,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1484,41 +1520,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1529,10 +1667,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,36 +1706,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,138 +1719,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2781,7 +2781,7 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>52</xdr:row>
+          <xdr:row>64</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2827,13 +2827,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>65</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>76</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4668,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4686,15 +4686,15 @@
       <c r="A1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="73" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4711,248 +4711,255 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="99" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="99" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="98"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="92" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="94"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A65:L65"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A16:L16"/>
@@ -4964,13 +4971,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4997,8 +4997,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5016,13 +5016,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>65</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -5086,7 +5086,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="130" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="50"/>
@@ -5107,7 +5107,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="131"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5120,7 +5120,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5135,152 +5135,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5289,70 +5289,70 @@
       <c r="B16" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5361,16 +5361,16 @@
       <c r="B21" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
@@ -5379,16 +5379,16 @@
       <c r="B22" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="158" t="s">
+      <c r="C22" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="160"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
@@ -5397,14 +5397,14 @@
       <c r="B23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -5413,52 +5413,52 @@
       <c r="B24" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="166"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="155"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="111"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5473,14 +5473,14 @@
       <c r="D28" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="156" t="s">
+      <c r="E28" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5489,180 +5489,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="104"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="100" t="s">
+      <c r="C37" s="163"/>
+      <c r="D37" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="161"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="148"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="161"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="148"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5685,14 +5685,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5701,27 +5701,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5738,16 +5738,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5800,7 +5800,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="130" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="39"/>
@@ -5827,7 +5827,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="131"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5845,7 +5845,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5981,18 +5981,18 @@
       <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6115,18 +6115,18 @@
       <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42" t="s">
@@ -6299,18 +6299,18 @@
       <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="128"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="134"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="42" t="s">
@@ -6509,18 +6509,18 @@
       <c r="J33" s="69"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="126" t="s">
+      <c r="A34" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="128"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="134"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="42" t="s">

--- a/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
+++ b/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="158">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -517,10 +517,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>3.1 取得人員所屬單位預設可查詢範圍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>vw_emp_unique</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -529,210 +525,252 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I、O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限分類(CRUD)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能清單代號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I、O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile.group_id = 權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node.node_id = 功能清單代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique.emp_id = 員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User.Account = 員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查詢範圍單位代號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique.org_id = 可查詢範圍單位代號，並以遞迴方式找出所有下轄單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User_RoleRelation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User_RoleRelation.Sid = 使用者識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_scope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_scope.Rid = 群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 取得人員所屬單位預設可查詢範圍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.4 查詢職稱角色、自訂角色可查詢範圍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>由4.2、4.3查詢合併後的群組識別值List</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 查詢職稱角色、自訂角色可查詢範圍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>由4.1、4.4查詢合併後的單位代號List</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>vw_org_unique</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>單位代號</t>
+    <t>vw_org_unique</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I、O</t>
+    <t>vw_org_unique.org_id = 單位代號，並以遞迴方式找出所有下轄單位代號，最後回傳單位本身及下轄所有單位代號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
+    <t>群組識別值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3.2 取得職稱角色代號</t>
+    <t>4.2 取得職稱角色識別值</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限分類(CRUD)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能清單代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 取得自訂角色代號</t>
+    <t>4.3 取得自訂角色識別值</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-  </si>
-  <si>
-    <t>I、O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>action_type</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>apf_roleprofile.group_id = 權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>node_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>apf_permission.role_id = 群組識別值 and 
-apf_permission.controller_id = 功能識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node.node_id = 功能清單代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique.emp_id = 員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User.Account = 員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可查詢範圍單位代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique.org_id = 可查詢範圍單位代號，並以遞迴方式找出所有下轄單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User_RoleRelation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User_RoleRelation.Sid = 使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4 查詢職稱角色、自訂角色可查詢範圍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>由3.2、3.3查詢合併後的群組識別值List</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_scope</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_scope.Rid = 群組識別值</t>
+apf_permission.controller_id = 功能識別值 and
+action_type like '%R%'</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2781,8 +2819,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4670,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4997,8 +5035,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5767,10 +5805,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5982,7 +6020,7 @@
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
       <c r="A11" s="132" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6031,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
@@ -6039,7 +6077,7 @@
         <v>68</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>75</v>
@@ -6055,25 +6093,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>96</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="49.5">
@@ -6081,25 +6119,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -6116,7 +6154,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="132" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133"/>
@@ -6165,12 +6203,12 @@
         <v>1</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>70</v>
@@ -6189,18 +6227,18 @@
         <v>2</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
@@ -6213,25 +6251,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>109</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="69" t="s">
         <v>114</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33">
@@ -6239,51 +6277,51 @@
         <v>4</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G22" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H22" s="45"/>
       <c r="I22" s="43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="66">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="82.5">
       <c r="A23" s="48">
         <v>5</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6300,7 +6338,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="132" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -6349,12 +6387,12 @@
         <v>1</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>69</v>
@@ -6373,18 +6411,18 @@
         <v>2</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="43" t="s">
@@ -6397,25 +6435,25 @@
         <v>3</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="33">
@@ -6423,25 +6461,25 @@
         <v>4</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="33">
@@ -6449,51 +6487,51 @@
         <v>5</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="66">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="82.5">
       <c r="A32" s="48">
         <v>6</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6559,18 +6597,18 @@
         <v>1</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="43" t="s">
@@ -6585,31 +6623,29 @@
         <v>2</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="48">
-        <v>3</v>
-      </c>
+      <c r="A38" s="48"/>
       <c r="B38" s="45"/>
       <c r="C38" s="49"/>
       <c r="D38" s="45"/>
@@ -6621,49 +6657,130 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="48">
-        <v>4</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="69"/>
+      <c r="A39" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="48">
-        <v>5</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="69"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="A40" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="33">
       <c r="A41" s="48">
-        <v>6</v>
-      </c>
-      <c r="B41" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>144</v>
+      </c>
       <c r="C41" s="49"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
+      <c r="E41" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>148</v>
+      </c>
       <c r="H41" s="45"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="69"/>
+      <c r="I41" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="66">
+      <c r="A42" s="48">
+        <v>2</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="45"/>
+      <c r="I42" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="48"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="46"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="48"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="K1:K3"/>

--- a/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
+++ b/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
@@ -364,10 +364,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>角色維護</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>最大處理人數 -  3000人
 concurrent數 1500人 - 3秒以內</t>
     <phoneticPr fontId="2"/>
@@ -771,6 +767,10 @@
     <t>apf_permission.role_id = 群組識別值 and 
 apf_permission.controller_id = 功能識別值 and
 action_type like '%R%'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可處理資料範圍查詢</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2872,7 +2872,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4323,7 +4323,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4359,10 +4359,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
@@ -4371,10 +4371,10 @@
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
@@ -4384,7 +4384,7 @@
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
@@ -4708,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="97" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
@@ -4800,14 +4800,14 @@
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
       <c r="F8" s="81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="81"/>
       <c r="H8" s="81"/>
@@ -4836,14 +4836,14 @@
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
       <c r="A10" s="94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
       <c r="F10" s="81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="81"/>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
       <c r="A12" s="94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="91"/>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
       <c r="A14" s="94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="91"/>
       <c r="C14" s="91"/>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
       <c r="A16" s="90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="91"/>
       <c r="C16" s="91"/>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="143" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
       <c r="A15" s="117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="118"/>
       <c r="C15" s="118"/>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
       <c r="A20" s="117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="118"/>
       <c r="C20" s="118"/>
@@ -5415,10 +5415,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
@@ -5433,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="103"/>
       <c r="D23" s="104"/>
@@ -5449,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="107"/>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
       <c r="A31" s="132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="150" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="151"/>
       <c r="C32" s="151"/>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
       <c r="A11" s="132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -6069,22 +6069,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="46"/>
     </row>
@@ -6093,25 +6093,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>95</v>
-      </c>
       <c r="G14" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="49.5">
@@ -6119,25 +6119,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>134</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>135</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -6154,7 +6154,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133"/>
@@ -6203,22 +6203,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="46"/>
     </row>
@@ -6227,22 +6227,22 @@
         <v>2</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="G20" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="46"/>
     </row>
@@ -6251,25 +6251,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33">
@@ -6277,25 +6277,25 @@
         <v>4</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="45"/>
       <c r="I22" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="82.5">
@@ -6303,25 +6303,25 @@
         <v>5</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>113</v>
-      </c>
       <c r="G23" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6338,7 +6338,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -6387,22 +6387,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" s="46"/>
     </row>
@@ -6411,22 +6411,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="G28" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>118</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J28" s="46"/>
     </row>
@@ -6435,25 +6435,25 @@
         <v>3</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="33">
@@ -6461,25 +6461,25 @@
         <v>4</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="33">
@@ -6487,25 +6487,25 @@
         <v>5</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="82.5">
@@ -6513,25 +6513,25 @@
         <v>6</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6548,7 +6548,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -6597,25 +6597,25 @@
         <v>1</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J36" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6623,25 +6623,25 @@
         <v>2</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6658,7 +6658,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="133"/>
       <c r="C39" s="133"/>
@@ -6707,25 +6707,25 @@
         <v>1</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="66">
@@ -6733,25 +6733,25 @@
         <v>2</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="45" t="s">
         <v>134</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>135</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:10">

--- a/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
+++ b/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -167,7 +167,585 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
+    <t>功能 Use Case</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>效能需求</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資料處理量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡述/目標</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務需求目的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要參與者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援性參與者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發事件Triggers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事先條件Preconditions</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面示意圖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Global 參數</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理流程說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途分類</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含SA功能描述、流程說明、其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="63"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名稱</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大處理人數 -  3000人
+concurrent數 1500人 - 3秒以內</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統進行人員、組織查詢時。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>查詢人員</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:無
+1.1 SESSION內容:
+1.2 成立條件:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.底層共用API，提供各模組於實際查詢資料時判斷該登入人員於該功能中被賦予的組織查詢範圍
+2.因僅為角色設定的最上層組織代號，仍需經共通性主檔API取得完整可查詢組織代號List</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提供各模組查詢人員、組織時使用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>速達3代各模組</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Framework底層功能
+1.提供可處理資料範圍API - Function
+2.各模組查詢模組本身DB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面_APF0501_QueryScope</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0501_QueryScope</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0501_可處理資料範圍查詢 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0501_QueryScope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>功能清單代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0501_QueryScope
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：呼叫API時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0501_QueryScope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_org_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I、O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限分類(CRUD)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能清單代號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I、O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile.group_id = 權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node.node_id = 功能清單代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique.emp_id = 員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User.Account = 員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查詢範圍單位代號</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique.org_id = 可查詢範圍單位代號，並以遞迴方式找出所有下轄單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User_RoleRelation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User_RoleRelation.Sid = 使用者識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_scope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_scope.Rid = 群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 取得人員所屬單位預設可查詢範圍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.4 查詢職稱角色、自訂角色可查詢範圍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>由4.2、4.3查詢合併後的群組識別值List</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 查詢職稱角色、自訂角色可查詢範圍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>由4.1、4.4查詢合併後的單位代號List</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique.org_id = 單位代號，並以遞迴方式找出所有下轄單位代號，最後回傳單位本身及下轄所有單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 取得職稱角色識別值</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.3 取得自訂角色識別值</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>action_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission.role_id = 群組識別值 and 
+apf_permission.controller_id = 功能識別值 and
+action_type like '%R%'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可處理資料範圍查詢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
     <rPh sb="2" eb="3">
       <t>カタ</t>
     </rPh>
@@ -186,592 +764,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>功能 Use Case</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>效能需求</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>資料處理量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡述/目標</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務需求目的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要參與者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支援性參與者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>觸發事件Triggers</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事先條件Preconditions</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Global 參數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理流程說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用途分類</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>連結</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含SA功能描述、流程說明、其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>名稱</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>可輸入長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブチョウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大處理人數 -  3000人
-concurrent數 1500人 - 3秒以內</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統進行人員、組織查詢時。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>查詢人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>suda_work_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:無
-1.1 SESSION內容:
-1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.底層共用API，提供各模組於實際查詢資料時判斷該登入人員於該功能中被賦予的組織查詢範圍
-2.因僅為角色設定的最上層組織代號，仍需經共通性主檔API取得完整可查詢組織代號List</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>提供各模組查詢人員、組織時使用。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>速達3代各模組</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Framework底層功能
-1.提供可處理資料範圍API - Function
-2.各模組查詢模組本身DB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面_APF0501_QueryScope</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0501_QueryScope</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0501_可處理資料範圍查詢 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0501_QueryScope</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>功能清單代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0501_QueryScope
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫API時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0501_QueryScope</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(5)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>search_org_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I、O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限分類(CRUD)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能清單代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I、O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>action_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile.group_id = 權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>node_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node.node_id = 功能清單代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique.emp_id = 員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User.Account = 員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可查詢範圍單位代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique.org_id = 可查詢範圍單位代號，並以遞迴方式找出所有下轄單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User_RoleRelation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User_RoleRelation.Sid = 使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_scope</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_scope.Rid = 群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 取得人員所屬單位預設可查詢範圍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.4 查詢職稱角色、自訂角色可查詢範圍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>由4.2、4.3查詢合併後的群組識別值List</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 查詢職稱角色、自訂角色可查詢範圍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>由4.1、4.4查詢合併後的單位代號List</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique.org_id = 單位代號，並以遞迴方式找出所有下轄單位代號，最後回傳單位本身及下轄所有單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2 取得職稱角色識別值</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.3 取得自訂角色識別值</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>action_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission.role_id = 群組識別值 and 
-apf_permission.controller_id = 功能識別值 and
-action_type like '%R%'</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可處理資料範圍查詢</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1477,6 +1470,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1489,24 +1527,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1516,12 +1536,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1532,31 +1546,172 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1585,9 +1740,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1599,165 +1751,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2872,7 +2865,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3462,7 +3455,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12296775" cy="523875"/>
+          <a:ext cx="12934950" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4323,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4331,64 +4324,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4572,10 +4565,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="70">
         <v>41564</v>
@@ -4708,7 +4701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
@@ -4722,17 +4715,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4749,250 +4742,243 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="77" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="93" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="A16" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="98"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
+      <c r="A17" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="85"/>
+      <c r="A65" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -5009,6 +4995,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5124,8 +5117,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="130" t="s">
-        <v>55</v>
+      <c r="K1" s="124" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5145,7 +5138,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="125"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5158,7 +5151,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5173,352 +5166,352 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="135" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="A5" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="A15" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="A20" s="142" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
+        <v>82</v>
+      </c>
+      <c r="C22" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
+        <v>83</v>
+      </c>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
+        <v>84</v>
+      </c>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="111"/>
+      <c r="A27" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="D28" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="E28" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5527,180 +5520,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="104"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
+      <c r="A31" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="150" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
+      <c r="A32" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="111"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="153"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="155"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="166"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="122"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="162" t="s">
+      <c r="B37" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="146" t="s">
+      <c r="C37" s="119"/>
+      <c r="D37" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="161"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="161"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="102"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5723,14 +5716,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5739,27 +5732,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5776,16 +5769,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5807,8 +5800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5816,12 +5809,12 @@
     <col min="1" max="1" width="4.25" style="41" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="20" style="41" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="41" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="41" customWidth="1"/>
     <col min="7" max="7" width="13" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="41" customWidth="1"/>
     <col min="10" max="10" width="34.125" style="41" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -5838,8 +5831,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="130" t="s">
-        <v>55</v>
+      <c r="K1" s="124" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5865,7 +5858,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5883,7 +5876,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="125"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5928,7 +5921,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="168"/>
       <c r="C6" s="168"/>
@@ -5957,7 +5950,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5969,10 +5962,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -6006,7 +5999,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -6019,31 +6012,31 @@
       <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="A11" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -6055,10 +6048,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -6069,22 +6062,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J13" s="46"/>
     </row>
@@ -6093,25 +6086,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="49.5">
@@ -6119,25 +6112,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -6153,18 +6146,18 @@
       <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="132" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
+      <c r="A17" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42" t="s">
@@ -6174,10 +6167,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>22</v>
@@ -6189,10 +6182,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>0</v>
@@ -6203,22 +6196,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J19" s="46"/>
     </row>
@@ -6227,22 +6220,22 @@
         <v>2</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J20" s="46"/>
     </row>
@@ -6251,25 +6244,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33">
@@ -6277,25 +6270,25 @@
         <v>4</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H22" s="45"/>
       <c r="I22" s="43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="82.5">
@@ -6303,25 +6296,25 @@
         <v>5</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6337,18 +6330,18 @@
       <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
+      <c r="A25" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="128"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="42" t="s">
@@ -6358,10 +6351,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E26" s="42" t="s">
         <v>22</v>
@@ -6373,10 +6366,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="J26" s="42" t="s">
         <v>0</v>
@@ -6387,22 +6380,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J27" s="46"/>
     </row>
@@ -6411,22 +6404,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J28" s="46"/>
     </row>
@@ -6435,25 +6428,25 @@
         <v>3</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="33">
@@ -6461,25 +6454,25 @@
         <v>4</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="33">
@@ -6487,25 +6480,25 @@
         <v>5</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="82.5">
@@ -6513,25 +6506,25 @@
         <v>6</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6547,18 +6540,18 @@
       <c r="J33" s="69"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="132" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="134"/>
+      <c r="A34" s="126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="128"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="42" t="s">
@@ -6568,10 +6561,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>22</v>
@@ -6583,10 +6576,10 @@
         <v>16</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="J35" s="42" t="s">
         <v>0</v>
@@ -6597,25 +6590,25 @@
         <v>1</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J36" s="69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6623,25 +6616,25 @@
         <v>2</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6657,18 +6650,18 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
+      <c r="A39" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="128"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">
@@ -6678,10 +6671,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>22</v>
@@ -6693,10 +6686,10 @@
         <v>16</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="J40" s="42" t="s">
         <v>0</v>
@@ -6707,25 +6700,25 @@
         <v>1</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J41" s="69" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="66">
@@ -6733,25 +6726,25 @@
         <v>2</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J42" s="69" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:10">

--- a/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
+++ b/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="157">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -203,10 +203,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -345,19 +341,19 @@
   </si>
   <si>
     <t>emp_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>suda_work_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>無</t>
@@ -371,7 +367,7 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>IPO Model</t>
@@ -396,12 +392,6 @@
   </si>
   <si>
     <t>速達3代各模組</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Framework底層功能
-1.提供可處理資料範圍API - Function
-2.各模組查詢模組本身DB</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -470,7 +460,7 @@
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>vw_emp_unique</t>
@@ -478,7 +468,7 @@
   </si>
   <si>
     <t>search_org_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>單位代號</t>
@@ -525,7 +515,7 @@
   </si>
   <si>
     <t>功能清單代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>權限職稱代號</t>
@@ -537,7 +527,7 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Sid</t>
@@ -565,11 +555,11 @@
   </si>
   <si>
     <t>node_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>varchar(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>功能識別值</t>
@@ -589,11 +579,11 @@
   </si>
   <si>
     <t>emp_id</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
     <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>vw_emp_unique.emp_id = 員工編號</t>
@@ -613,7 +603,7 @@
   </si>
   <si>
     <t>可查詢範圍單位代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>vw_org_unique.org_id = 可查詢範圍單位代號，並以遞迴方式找出所有下轄單位代號</t>
@@ -689,7 +679,7 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>由4.1、4.4查詢合併後的單位代號List</t>
@@ -771,7 +761,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -924,11 +914,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1272,7 +1257,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,7 +1395,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,13 +1455,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1485,27 +1515,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1515,41 +1524,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1560,22 +1671,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,6 +1701,15 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1619,138 +1724,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2806,13 +2779,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2858,13 +2831,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>76</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4316,7 +4289,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4324,64 +4297,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4565,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="70">
         <v>41564</v>
@@ -4699,10 +4672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4715,17 +4688,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4742,251 +4715,224 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="A6" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
-      <c r="A16" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="98"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="75" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="93"/>
-      <c r="J65" s="93"/>
-      <c r="K65" s="93"/>
-      <c r="L65" s="94"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A63:L63"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -4995,13 +4941,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5022,13 +4961,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -5047,13 +4986,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>65</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -5117,8 +5056,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="124" t="s">
-        <v>52</v>
+      <c r="K1" s="126" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5138,7 +5077,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5151,7 +5090,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="127"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5166,352 +5105,352 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="A5" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
+      <c r="A15" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+        <v>54</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+      <c r="A20" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="154" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+        <v>80</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+        <v>81</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+        <v>82</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="A27" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="C28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="E28" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="165" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5520,180 +5459,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="104"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="A31" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
+      <c r="A32" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="100" t="s">
+      <c r="C37" s="159"/>
+      <c r="D37" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="157"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="144"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="157"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5716,14 +5655,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5732,27 +5671,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5769,16 +5708,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5800,7 +5739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -5831,8 +5770,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="124" t="s">
-        <v>52</v>
+      <c r="K1" s="126" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5858,7 +5797,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="127"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5876,7 +5815,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5920,18 +5859,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="A6" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="165"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5950,7 +5889,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5962,10 +5901,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5998,45 +5937,45 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="167" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169"/>
+      <c r="A10" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="126" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="A11" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -6048,10 +5987,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -6062,22 +6001,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" s="46"/>
     </row>
@@ -6086,25 +6025,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="49.5">
@@ -6112,25 +6051,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -6146,18 +6085,18 @@
       <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
+      <c r="A17" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42" t="s">
@@ -6167,10 +6106,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>154</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>156</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>22</v>
@@ -6182,10 +6121,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>0</v>
@@ -6196,22 +6135,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J19" s="46"/>
     </row>
@@ -6220,22 +6159,22 @@
         <v>2</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J20" s="46"/>
     </row>
@@ -6244,25 +6183,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>100</v>
-      </c>
       <c r="G21" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33">
@@ -6270,25 +6209,25 @@
         <v>4</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H22" s="45"/>
       <c r="I22" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="82.5">
@@ -6296,25 +6235,25 @@
         <v>5</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6330,18 +6269,18 @@
       <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="128"/>
+      <c r="A25" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="42" t="s">
@@ -6351,10 +6290,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>154</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>156</v>
       </c>
       <c r="E26" s="42" t="s">
         <v>22</v>
@@ -6366,10 +6305,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J26" s="42" t="s">
         <v>0</v>
@@ -6380,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="45"/>
       <c r="I27" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J27" s="46"/>
     </row>
@@ -6404,22 +6343,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>113</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J28" s="46"/>
     </row>
@@ -6428,25 +6367,25 @@
         <v>3</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="33">
@@ -6454,25 +6393,25 @@
         <v>4</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F30" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="45" t="s">
         <v>99</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>101</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="33">
@@ -6480,25 +6419,25 @@
         <v>5</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="82.5">
@@ -6506,25 +6445,25 @@
         <v>6</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6540,18 +6479,18 @@
       <c r="J33" s="69"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="126" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="128"/>
+      <c r="A34" s="128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="130"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="42" t="s">
@@ -6561,10 +6500,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="42" t="s">
         <v>154</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>156</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>22</v>
@@ -6576,10 +6515,10 @@
         <v>16</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J35" s="42" t="s">
         <v>0</v>
@@ -6590,25 +6529,25 @@
         <v>1</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J36" s="69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6616,25 +6555,25 @@
         <v>2</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>142</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6650,18 +6589,18 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="128"/>
+      <c r="A39" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="130"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">
@@ -6671,10 +6610,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="42" t="s">
         <v>154</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>156</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>22</v>
@@ -6686,10 +6625,10 @@
         <v>16</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J40" s="42" t="s">
         <v>0</v>
@@ -6700,25 +6639,25 @@
         <v>1</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F41" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="45" t="s">
         <v>141</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>143</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J41" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="66">
@@ -6726,25 +6665,25 @@
         <v>2</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J42" s="69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:10">

--- a/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
+++ b/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
@@ -1455,6 +1455,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,24 +1512,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1494,35 +1521,170 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1551,9 +1713,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1565,165 +1724,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2785,8 +2785,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2831,13 +2831,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>63</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>74</xdr:row>
+          <xdr:row>80</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4672,10 +4672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4690,15 +4690,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="88" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4715,223 +4715,216 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="77" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="81" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="81" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="89" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="89" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="83" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="85"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -4941,6 +4934,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4967,8 +4967,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4986,13 +4986,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -5056,7 +5056,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="120" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -5077,7 +5077,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5090,7 +5090,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5105,152 +5105,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5259,70 +5259,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5331,16 +5331,16 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
@@ -5349,16 +5349,16 @@
       <c r="B22" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
@@ -5367,14 +5367,14 @@
       <c r="B23" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -5383,52 +5383,52 @@
       <c r="B24" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="100"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="112"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="100"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5443,14 +5443,14 @@
       <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5459,180 +5459,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="100"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="130"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="149"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="149"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="158" t="s">
+      <c r="B37" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="159"/>
-      <c r="D37" s="142" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="144"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="98"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="144"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="98"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="157"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5655,14 +5655,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5671,27 +5671,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5708,16 +5708,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5770,7 +5770,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="120" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -5797,7 +5797,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5815,7 +5815,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5951,18 +5951,18 @@
       <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6085,18 +6085,18 @@
       <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="130"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42" t="s">
@@ -6269,18 +6269,18 @@
       <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="42" t="s">
@@ -6479,18 +6479,18 @@
       <c r="J33" s="69"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="128" t="s">
+      <c r="A34" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="130"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="42" t="s">
@@ -6589,18 +6589,18 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="130"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="124"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">

--- a/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
+++ b/APF/RA006/RA006_APF0501_可處理資料範圍查詢.xlsx
@@ -9,26 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="43" r:id="rId4"/>
-    <sheet name="畫面_APF0501_QueryScope" sheetId="7" r:id="rId5"/>
+    <sheet name="IPO" sheetId="44" r:id="rId4"/>
+    <sheet name="API_APF0501_QueryScope" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0501_QueryScope" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">API_APF0501_QueryScope!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0501_QueryScope!$A$1:$J$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0501_QueryScope!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0501_QueryScope!$A$1:$J$22</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">API_APF0501_QueryScope!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0501_QueryScope!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0501_QueryScope!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0501_QueryScope!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">API_APF0501_QueryScope!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="158">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -86,14 +86,6 @@
   </si>
   <si>
     <t>事後檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後端檢核</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -203,14 +195,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -304,18 +288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -341,23 +313,15 @@
   </si>
   <si>
     <t>emp_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>suda_work_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.前畫面:無
@@ -367,7 +331,7 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>IPO Model</t>
@@ -376,10 +340,6 @@
   <si>
     <t>IPO</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1.底層共用API，提供各模組於實際查詢資料時判斷該登入人員於該功能中被賦予的組織查詢範圍
@@ -393,10 +353,6 @@
   <si>
     <t>速達3代各模組</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面_APF0501_QueryScope</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>欄位_APF0501_QueryScope</t>
@@ -423,193 +379,117 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_org_id</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I、O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限分類(CRUD)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I、O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
     <t>員工編號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>功能清單代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0501_QueryScope
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫API時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0501_QueryScope</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(5)</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>search_org_id</t>
+    <t>vw_emp_unique.emp_id = 員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User.Account = 員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查詢範圍單位代號</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I、O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限分類(CRUD)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能清單代號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I、O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>action_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile.group_id = 權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>node_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node.node_id = 功能清單代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique.emp_id = 員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User.Account = 員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可查詢範圍單位代號</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique.org_id = 可查詢範圍單位代號，並以遞迴方式找出所有下轄單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Core_User_RoleRelation</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -627,14 +507,6 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_scope</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -646,18 +518,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>4.4 查詢職稱角色、自訂角色可查詢範圍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>由4.2、4.3查詢合併後的群組識別值List</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 查詢職稱角色、自訂角色可查詢範圍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>單位代號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -679,11 +539,7 @@
   </si>
   <si>
     <t>varchar2(10)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>由4.1、4.4查詢合併後的單位代號List</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>vw_org_unique</t>
@@ -696,18 +552,6 @@
   <si>
     <t>vw_org_unique.org_id = 單位代號，並以遞迴方式找出所有下轄單位代號，最後回傳單位本身及下轄所有單位代號</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2 取得職稱角色識別值</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.3 取得自訂角色識別值</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>action_type</t>
@@ -755,6 +599,154 @@
   </si>
   <si>
     <t>輸入/輸出/必填</t>
+  </si>
+  <si>
+    <t>Function說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>API_APF0501_QueryScope</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得人員於某功能清單的可查詢範圍，詳細內容請參考功能簡述第4點說明。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apf_roleprofile.group_id = 權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node.node_id = 功能清單識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQueryScopeByCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Account、suda_work_id、node_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.2.1 取得CMD職稱角色識別值(Rid)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.2.2 取得APF職稱角色及自訂角色識別值(Rid)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.3 取得該功能清單的功能識別值(controller_id)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能清單識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 確認這些角色是否有查詢功能清單的權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>controller_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3功能識別值(controller_id)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由4.2.1、4.2.2查詢合併後的群組識別值List</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.1 取出該人員所屬角色在此功能下可查詢的最上層單位代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>query_scope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由4.4取得有查詢權限的群組識別值List</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由4.1.1、4.5.1查詢合併後的單位代號List</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.2 取得全部可查詢單位</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -916,13 +908,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="標楷體"/>
@@ -942,6 +927,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="8">
@@ -988,7 +979,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1158,15 +1149,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="double">
@@ -1257,7 +1239,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1334,31 +1316,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1395,15 +1377,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1419,9 +1395,6 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1449,11 +1422,32 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1461,68 +1455,56 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1539,70 +1521,58 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,124 +1580,11 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2786,7 +2643,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2886,6 +2743,1091 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34817" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s34817"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF0501_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可處理資料範圍查詢</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131113</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -3403,7 +4345,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4275,7 +5217,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4288,73 +5230,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="A1" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="72" t="s">
-        <v>61</v>
+      <c r="A5" s="69" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="72"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="34" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4516,13 +5458,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -4538,12 +5480,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="70">
+        <v>37</v>
+      </c>
+      <c r="D6" s="67">
         <v>41564</v>
       </c>
       <c r="E6" s="12"/>
@@ -4674,7 +5616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -4688,17 +5630,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="88" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4715,208 +5657,208 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="95" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="A14" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
+      <c r="A15" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
-      <c r="I69" s="93"/>
-      <c r="J69" s="93"/>
-      <c r="K69" s="93"/>
-      <c r="L69" s="94"/>
+      <c r="A69" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5008,25 +5950,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="83"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="34817" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5056,8 +6049,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="120" t="s">
-        <v>51</v>
+      <c r="K1" s="110" t="s">
+        <v>47</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5077,7 +6070,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="121"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5090,7 +6083,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="121"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5104,620 +6097,305 @@
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="125" t="s">
+    <row r="5" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+    </row>
+    <row r="6" spans="1:17" s="53" customFormat="1" ht="51" customHeight="1">
+      <c r="A6" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+    </row>
+    <row r="8" spans="1:17" s="53" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
-    </row>
-    <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
-    </row>
-    <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="E10" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="1:17" s="52" customFormat="1" ht="69" customHeight="1">
+      <c r="A11" s="57">
+        <v>1</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>124</v>
+      </c>
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-    </row>
-    <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="138" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
-    </row>
-    <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="J11" s="73"/>
+    </row>
+    <row r="12" spans="1:17" s="52" customFormat="1">
+      <c r="A12" s="59"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="100"/>
+    </row>
+    <row r="13" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
+    </row>
+    <row r="14" spans="1:17" s="53" customFormat="1">
+      <c r="A14" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
-    </row>
-    <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-    </row>
-    <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
-    </row>
-    <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
-    </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
-    </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
-    </row>
-    <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="55">
+      <c r="B14" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+    </row>
+    <row r="15" spans="1:17" s="53" customFormat="1">
+      <c r="A15" s="101"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
+    </row>
+    <row r="16" spans="1:17" s="52" customFormat="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+    </row>
+    <row r="17" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="103"/>
+    </row>
+    <row r="19" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
+    </row>
+    <row r="20" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+    </row>
+    <row r="21" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="60">
         <v>1</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-    </row>
-    <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="55">
+      <c r="B21" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+    </row>
+    <row r="22" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="60">
         <v>2</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
-    </row>
-    <row r="24" spans="1:12" s="52" customFormat="1">
-      <c r="A24" s="55">
-        <v>3</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
-    </row>
-    <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="100"/>
-    </row>
-    <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="100"/>
-    </row>
-    <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="160"/>
-    </row>
-    <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="161" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-    </row>
-    <row r="29" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-    </row>
-    <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="100"/>
-    </row>
-    <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-    </row>
-    <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
-    </row>
-    <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
-    </row>
-    <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
-    </row>
-    <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="113"/>
-    </row>
-    <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="118"/>
-    </row>
-    <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
-    </row>
-    <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="103"/>
-    </row>
-    <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="98"/>
-    </row>
-    <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
-    </row>
-    <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="101"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
-    </row>
-    <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="67"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="63">
-        <v>1</v>
-      </c>
-      <c r="B44" s="68" t="s">
+      <c r="B22" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="63">
-        <v>2</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+    </row>
+    <row r="23" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
+  <mergeCells count="22">
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="C22:J22"/>
     <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B12:J12"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5737,10 +6415,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5770,8 +6448,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="120" t="s">
-        <v>51</v>
+      <c r="K1" s="110" t="s">
+        <v>47</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5797,7 +6475,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="121"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5815,7 +6493,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="121"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5859,18 +6537,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="163" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
+      <c r="A6" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5883,28 +6561,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5937,60 +6615,60 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="163" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="A10" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="A11" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -6001,22 +6679,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J13" s="46"/>
     </row>
@@ -6025,52 +6703,38 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="49.5">
-      <c r="A15" s="48">
-        <v>3</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>89</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="48"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
-      <c r="E15" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>128</v>
-      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>123</v>
-      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="48"/>
@@ -6082,49 +6746,49 @@
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="69"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="122" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
+      <c r="A17" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>0</v>
@@ -6135,445 +6799,427 @@
         <v>1</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J19" s="46"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="33">
       <c r="A20" s="48">
         <v>2</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="46"/>
-    </row>
-    <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="48">
-        <v>3</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>146</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="48"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>99</v>
-      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="48">
-        <v>4</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="82.5">
-      <c r="A23" s="48">
-        <v>5</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="69" t="s">
-        <v>150</v>
+      <c r="I21" s="43"/>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="48"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="48">
+        <v>1</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="C24" s="49"/>
       <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="E24" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="45"/>
-      <c r="I24" s="43"/>
+      <c r="I24" s="43" t="s">
+        <v>69</v>
+      </c>
       <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="122" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="42" t="s">
+      <c r="A25" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>0</v>
+      <c r="B25" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33">
+      <c r="A26" s="48">
+        <v>3</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="48">
-        <v>1</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>120</v>
-      </c>
+      <c r="A27" s="48"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>65</v>
-      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="46"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="48">
+      <c r="A28" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="48">
-        <v>3</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="33">
+      <c r="B29" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J30" s="69" t="s">
-        <v>126</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="33">
       <c r="A31" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="82.5">
-      <c r="A32" s="48">
-        <v>6</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>95</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J31" s="66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="48"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="45" t="s">
+      <c r="D32" s="124"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="66"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="120"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="33">
+      <c r="A35" s="48">
+        <v>1</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="69" t="s">
+      <c r="G35" s="45" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="48"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="69"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="42" t="s">
+      <c r="H35" s="45"/>
+      <c r="I35" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="48">
         <v>2</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J35" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="33">
-      <c r="A36" s="48">
-        <v>1</v>
-      </c>
       <c r="B36" s="45" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J36" s="69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="J36" s="66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="82.5">
       <c r="A37" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>131</v>
+        <v>77</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6586,49 +7232,49 @@
       <c r="G38" s="45"/>
       <c r="H38" s="45"/>
       <c r="I38" s="43"/>
-      <c r="J38" s="46"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="122" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="124"/>
+      <c r="A39" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="120"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J40" s="42" t="s">
         <v>0</v>
@@ -6639,51 +7285,51 @@
         <v>1</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J41" s="69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="66">
+        <v>69</v>
+      </c>
+      <c r="J41" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="48">
         <v>2</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="J42" s="69" t="s">
-        <v>145</v>
+        <v>77</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6699,27 +7345,139 @@
       <c r="J43" s="46"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="48"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="69"/>
+      <c r="A44" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="120"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J45" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="33">
+      <c r="A46" s="48">
+        <v>1</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="45"/>
+      <c r="I46" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="66">
+      <c r="A47" s="48">
+        <v>2</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="49"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="45"/>
+      <c r="I47" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="48"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="46"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="48"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A34:J34"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A33:J33"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
